--- a/instance/zyjk/QYPT/web/101.xlsx
+++ b/instance/zyjk/QYPT/web/101.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,41 @@
         </is>
       </c>
     </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>平台管理系统</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>用户管理</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>搜索用户，参数登录名为mql，医院名为招远市妇幼医院，状态为启用，断言检查预期值为1</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>共 1 条</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
